--- a/Data/Transitions/18931918Translation.xlsx
+++ b/Data/Transitions/18931918Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="640">
   <si>
     <t>id</t>
   </si>
@@ -136,7 +136,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -160,13 +160,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286}</t>
+    <t>{764.0: 0.1490527567751253}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -184,7 +184,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -241,7 +241,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -265,16 +265,16 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{144.0: 0.9651930696915546}</t>
+    <t>{144.0: 0.9651714219077976}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9168485213334336, 764.0: 0.02364448224537529}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9109445519019987, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -343,10 +343,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872}</t>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -355,7 +355,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -373,7 +373,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -466,6 +466,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -484,7 +487,7 @@
     <t>{249.0: 0.8123817247904839}</t>
   </si>
   <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
   </si>
   <si>
     <t>{251.0: 1.0}</t>
@@ -526,7 +529,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
@@ -550,10 +553,10 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434104, 180.0: 0.019290841734807506}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434104, 180.0: 0.03163332341347582}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -643,7 +646,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -667,9 +670,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -679,7 +679,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -799,7 +799,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.09431007482164608}</t>
+    <t>{476.0: 1.0, 595.0: 0.09373919059149083}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -829,7 +829,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.6817752596789424, 837.0: 0.009122201354230282}</t>
+    <t>{486.0: 0.6817752596789424, 837.0: 0.00936130623498098}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -874,7 +874,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.23553719008264462}</t>
+    <t>{534.0: 0.22213106348066866}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -904,7 +904,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -916,7 +916,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -979,7 +979,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715}</t>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1009,13 +1009,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9056899251783539}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9062608094085092}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1039,7 +1039,7 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 837.0: 0.04255546531013551}</t>
+    <t>{604.0: 1.0, 837.0: 0.043670899958325106}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1144,7 +1144,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1156,7 +1156,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1183,7 +1183,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1222,7 +1222,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1255,7 +1255,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1285,7 +1285,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.7593283582089553}</t>
+    <t>{757.0: 0.7565118912797282}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1306,7 +1306,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1411,7 +1411,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1429,7 +1429,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1447,7 +1447,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1507,7 +1507,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1534,7 +1534,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1567,7 +1567,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.93016028215246}</t>
+    <t>{930.0: 0.9201405526273758}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1588,13 +1588,13 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
+    <t>{593.0: 0.24784505665281187}</t>
   </si>
   <si>
     <t>{910.0: 0.1834781652183478}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1645,7 +1645,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.12623867399284688}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1684,7 +1684,7 @@
     <t>{543.0: 0.6694870438921205, 86.0: 0.33051295610787945}</t>
   </si>
   <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.05790113999909883}</t>
+    <t>{141.0: 0.9421837681943132, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.21109560362875085}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977653}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1720,7 +1720,7 @@
     <t>{206.0: 0.8527388535031847, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{212.0: 0.4878850102669404, 681.0: 0.5121149897330596}</t>
+    <t>{212.0: 0.48788501026694026, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -1735,7 +1735,7 @@
     <t>{581.0: 0.9502995340581318, 144.0: 0.0497004659418682}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740362, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740362, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1750,19 +1750,19 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
   </si>
   <si>
-    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
+    <t>{400.0: 0.968119139547711, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
@@ -1774,7 +1774,7 @@
     <t>{431.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{486.0: 0.881371991661929, 837.0: 0.1186280083380709}</t>
@@ -1789,7 +1789,7 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -1798,7 +1798,7 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587967, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1816,10 +1816,10 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124716, 837.0: 0.18177668218752852}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664718, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1843,7 +1843,7 @@
     <t>{615.0: 0.5922794117647059, 698.0: 0.11176470588235295, 751.0: 0.2959558823529412}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.29214237743451976}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -1876,7 +1876,10 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787178, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
@@ -1891,7 +1894,7 @@
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -1912,19 +1915,19 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123948}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
@@ -3924,7 +3927,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3935,7 +3938,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3946,7 +3949,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3957,7 +3960,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3979,40 +3982,40 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>571</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4034,7 +4037,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4045,40 +4048,40 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>573</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>574</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4089,7 +4092,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4100,7 +4103,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4111,7 +4114,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4122,7 +4125,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4133,7 +4136,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4144,51 +4147,51 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>575</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4210,7 +4213,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4221,7 +4224,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4232,40 +4235,40 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>577</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4276,7 +4279,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4298,7 +4301,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4309,7 +4312,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4320,7 +4323,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4353,29 +4356,29 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>579</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4386,7 +4389,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4397,7 +4400,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4408,7 +4411,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4419,7 +4422,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4430,7 +4433,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4452,7 +4455,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4463,7 +4466,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4474,7 +4477,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4485,7 +4488,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4496,7 +4499,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4507,7 +4510,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4518,7 +4521,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4562,40 +4565,40 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>580</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>210</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4606,7 +4609,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4617,7 +4620,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4628,7 +4631,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -6988,7 +6991,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7175,7 +7178,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7230,7 +7233,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7329,7 +7332,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7340,7 +7343,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7461,7 +7464,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7505,7 +7508,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7593,7 +7596,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7637,7 +7640,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -7747,7 +7750,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7791,7 +7794,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7857,7 +7860,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7967,7 +7970,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8000,7 +8003,7 @@
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8055,7 +8058,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8066,7 +8069,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8132,7 +8135,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8165,7 +8168,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8209,7 +8212,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8242,7 +8245,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8253,7 +8256,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="543" spans="1:3">
